--- a/trunk/Enterprise_Management_System/docs/测试结果/人力资源模块测试结果.xlsx
+++ b/trunk/Enterprise_Management_System/docs/测试结果/人力资源模块测试结果.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="86">
   <si>
     <t>菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,22 @@
   </si>
   <si>
     <t>原型设计:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李智林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈亮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,16 +427,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I34" totalsRowShown="0">
-  <autoFilter ref="A1:I34">
-    <filterColumn colId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J34" totalsRowShown="0">
+  <autoFilter ref="A1:J34">
+    <filterColumn colId="2"/>
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
+    <filterColumn colId="9"/>
   </autoFilter>
-  <tableColumns count="9">
+  <tableColumns count="10">
     <tableColumn id="1" name="菜单"/>
     <tableColumn id="2" name="功能/操作"/>
+    <tableColumn id="10" name="项目编码"/>
     <tableColumn id="3" name="输入内容" dataDxfId="1"/>
     <tableColumn id="4" name="测试结果"/>
     <tableColumn id="5" name="异常信息" dataDxfId="0"/>
@@ -718,25 +736,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="29.875" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="2" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="29.875" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,847 +762,949 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>72</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>71</v>
-      </c>
       <c r="I4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="27">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="3">
+      <c r="F6" s="6"/>
+      <c r="G6" s="3">
         <v>41481</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" t="s">
-        <v>71</v>
-      </c>
       <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="3">
+      <c r="F7" s="6"/>
+      <c r="G7" s="3">
         <v>41481</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
-        <v>71</v>
-      </c>
       <c r="I7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3">
+      <c r="F8" s="6"/>
+      <c r="G8" s="3">
         <v>41481</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
       <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3">
+      <c r="F9" s="6"/>
+      <c r="G9" s="3">
         <v>41481</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
-        <v>71</v>
-      </c>
       <c r="I9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="27">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3">
+      <c r="F10" s="6"/>
+      <c r="G10" s="3">
         <v>41481</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H10" t="s">
-        <v>71</v>
-      </c>
       <c r="I10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="27">
+        <v>71</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="3">
+      <c r="F11" s="6"/>
+      <c r="G11" s="3">
         <v>41481</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H11" t="s">
-        <v>71</v>
-      </c>
       <c r="I11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" t="s">
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="3">
+      <c r="F12" s="6"/>
+      <c r="G12" s="3">
         <v>41481</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H12" t="s">
-        <v>71</v>
-      </c>
       <c r="I12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="3">
+      <c r="F13" s="6"/>
+      <c r="G13" s="3">
         <v>41481</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H13" t="s">
-        <v>71</v>
-      </c>
       <c r="I13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="54">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="54">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="3">
+      <c r="F14" s="6"/>
+      <c r="G14" s="3">
         <v>41481</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
       <c r="I14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="40.5">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="40.5">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>41481</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
-        <v>71</v>
-      </c>
       <c r="I15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="3">
+      <c r="F16" s="6"/>
+      <c r="G16" s="3">
         <v>41481</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H16" t="s">
-        <v>71</v>
-      </c>
       <c r="I16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41481</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H17" t="s">
-        <v>71</v>
-      </c>
       <c r="I17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="27">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="27">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" t="s">
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H18" t="s">
-        <v>71</v>
-      </c>
       <c r="I18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="27">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="27">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
       <c r="I19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="27">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="27">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" t="s">
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H20" t="s">
-        <v>71</v>
-      </c>
       <c r="I20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" t="s">
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H21" t="s">
-        <v>71</v>
-      </c>
       <c r="I21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="40.5">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="40.5">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>41481</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H22" t="s">
-        <v>71</v>
-      </c>
       <c r="I22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2" t="s">
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H23" t="s">
-        <v>71</v>
-      </c>
       <c r="I23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2" t="s">
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H24" t="s">
-        <v>71</v>
-      </c>
       <c r="I24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2" t="s">
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>71</v>
-      </c>
       <c r="I25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2" t="s">
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>71</v>
-      </c>
       <c r="I26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H27" t="s">
-        <v>71</v>
-      </c>
       <c r="I27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2" t="s">
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H28" t="s">
-        <v>71</v>
-      </c>
       <c r="I28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2" t="s">
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H29" t="s">
-        <v>71</v>
-      </c>
       <c r="I29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="2" t="s">
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H30" t="s">
-        <v>71</v>
-      </c>
       <c r="I30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2" t="s">
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H31" t="s">
-        <v>71</v>
-      </c>
       <c r="I31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2" t="s">
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H32" t="s">
-        <v>71</v>
-      </c>
       <c r="I32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="2" t="s">
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H33" t="s">
-        <v>71</v>
-      </c>
       <c r="I33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="E34" s="6"/>
-      <c r="G34" s="2" t="s">
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="F34" s="6"/>
+      <c r="H34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H34" t="s">
-        <v>71</v>
-      </c>
       <c r="I34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="B39" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G5" r:id="rId2" display="http://122.13.0.56:8080/kx"/>
-    <hyperlink ref="G8" r:id="rId3" display="http://122.13.0.56:8080/kx"/>
-    <hyperlink ref="G11" r:id="rId4" display="http://122.13.0.56:8080/kx"/>
-    <hyperlink ref="G14" r:id="rId5" display="http://122.13.0.56:8080/kx"/>
-    <hyperlink ref="G17" r:id="rId6" display="http://122.13.0.56:8080/kx"/>
-    <hyperlink ref="G20" r:id="rId7" display="http://122.13.0.56:8080/kx"/>
-    <hyperlink ref="G22" r:id="rId8" display="http://122.13.0.56:8080/kx"/>
-    <hyperlink ref="G25" r:id="rId9" display="http://122.13.0.56:8080/kx"/>
-    <hyperlink ref="G28" r:id="rId10" display="http://122.13.0.56:8080/kx"/>
-    <hyperlink ref="G31" r:id="rId11" display="http://122.13.0.56:8080/kx"/>
-    <hyperlink ref="G34" r:id="rId12" display="http://122.13.0.56:8080/kx"/>
-    <hyperlink ref="C39" r:id="rId13"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2" display="http://122.13.0.56:8080/kx"/>
+    <hyperlink ref="H8" r:id="rId3" display="http://122.13.0.56:8080/kx"/>
+    <hyperlink ref="H11" r:id="rId4" display="http://122.13.0.56:8080/kx"/>
+    <hyperlink ref="H14" r:id="rId5" display="http://122.13.0.56:8080/kx"/>
+    <hyperlink ref="H17" r:id="rId6" display="http://122.13.0.56:8080/kx"/>
+    <hyperlink ref="H20" r:id="rId7" display="http://122.13.0.56:8080/kx"/>
+    <hyperlink ref="H22" r:id="rId8" display="http://122.13.0.56:8080/kx"/>
+    <hyperlink ref="H25" r:id="rId9" display="http://122.13.0.56:8080/kx"/>
+    <hyperlink ref="H28" r:id="rId10" display="http://122.13.0.56:8080/kx"/>
+    <hyperlink ref="H31" r:id="rId11" display="http://122.13.0.56:8080/kx"/>
+    <hyperlink ref="H34" r:id="rId12" display="http://122.13.0.56:8080/kx"/>
+    <hyperlink ref="D39" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId14"/>

--- a/trunk/Enterprise_Management_System/docs/测试结果/人力资源模块测试结果.xlsx
+++ b/trunk/Enterprise_Management_System/docs/测试结果/人力资源模块测试结果.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="81">
   <si>
     <t>菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,30 +257,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与需求不符，缺失部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>石家庄办事处</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>少合同编号，界面把个人信息和合同都显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少合同编号，界面待评审，是否支持N个选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与原型设计不符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://211.91.224.230:8080/static_assets/oa/Home.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,11 +301,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>银行卡号:fff，邮箱地址:zhangsan@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不通过</t>
+    <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,11 +395,11 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -445,9 +425,9 @@
     <tableColumn id="2" name="功能/操作"/>
     <tableColumn id="10" name="项目编码"/>
     <tableColumn id="3" name="输入内容" dataDxfId="2"/>
-    <tableColumn id="11" name="表单空值判断" dataDxfId="0"/>
+    <tableColumn id="11" name="表单空值判断" dataDxfId="1"/>
     <tableColumn id="4" name="测试结果"/>
-    <tableColumn id="5" name="异常信息" dataDxfId="1"/>
+    <tableColumn id="5" name="异常信息" dataDxfId="0"/>
     <tableColumn id="6" name="测试时间"/>
     <tableColumn id="7" name="测试地址"/>
     <tableColumn id="9" name="测试帐号"/>
@@ -744,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -768,13 +748,13 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
         <v>58</v>
@@ -803,24 +783,26 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="3">
+        <v>41486</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -834,24 +816,26 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="3">
+        <v>41486</v>
+      </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -865,24 +849,26 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3">
+        <v>41486</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -896,24 +882,26 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="3">
+        <v>41486</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -927,13 +915,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -946,7 +934,7 @@
         <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -960,13 +948,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -979,7 +967,7 @@
         <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -993,11 +981,11 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1010,7 +998,7 @@
         <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
@@ -1024,13 +1012,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
@@ -1043,7 +1031,7 @@
         <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -1057,13 +1045,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
         <v>54</v>
@@ -1076,7 +1064,7 @@
         <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -1090,13 +1078,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -1109,7 +1097,7 @@
         <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
@@ -1123,11 +1111,11 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
@@ -1140,7 +1128,7 @@
         <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -1154,13 +1142,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
         <v>54</v>
@@ -1173,7 +1161,7 @@
         <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
@@ -1187,19 +1175,17 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" t="s">
-        <v>63</v>
+        <v>77</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H14" s="3">
         <v>41481</v>
@@ -1208,7 +1194,7 @@
         <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
@@ -1222,19 +1208,17 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H15" s="3">
         <v>41481</v>
@@ -1243,7 +1227,7 @@
         <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -1257,11 +1241,11 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
         <v>62</v>
@@ -1274,7 +1258,7 @@
         <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
@@ -1288,11 +1272,11 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
         <v>54</v>
@@ -1305,13 +1289,13 @@
         <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="27">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1319,28 +1303,28 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
       <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="3"/>
       <c r="I18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="27">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1348,28 +1332,28 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
       <c r="F19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>71</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="3"/>
       <c r="I19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1377,22 +1361,22 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
       <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>71</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
@@ -1406,12 +1390,12 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="3"/>
@@ -1419,7 +1403,7 @@
         <v>42</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s">
         <v>21</v>
@@ -1433,11 +1417,11 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>54</v>
@@ -1450,7 +1434,7 @@
         <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s">
         <v>21</v>
@@ -1464,11 +1448,11 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>54</v>
@@ -1479,7 +1463,7 @@
         <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
         <v>21</v>
@@ -1493,11 +1477,11 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>54</v>
@@ -1508,7 +1492,7 @@
         <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
@@ -1522,11 +1506,11 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>54</v>
@@ -1537,7 +1521,7 @@
         <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s">
         <v>21</v>
@@ -1551,17 +1535,20 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="3"/>
       <c r="I26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
@@ -1575,22 +1562,20 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="7"/>
       <c r="H27" s="3"/>
       <c r="I27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
@@ -1604,17 +1589,20 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="3"/>
       <c r="I28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s">
         <v>21</v>
@@ -1628,17 +1616,20 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
@@ -1652,17 +1643,20 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="J30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K30" t="s">
         <v>21</v>
@@ -1673,20 +1667,23 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K31" t="s">
         <v>21</v>
@@ -1700,18 +1697,20 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="1"/>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="3"/>
       <c r="I32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="J32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
@@ -1725,17 +1724,20 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="3"/>
       <c r="I33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K33" t="s">
         <v>21</v>
@@ -1746,19 +1748,22 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="I34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
@@ -1766,10 +1771,10 @@
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2"/>
     </row>
